--- a/sources/case/ApprovalSummary.xlsx
+++ b/sources/case/ApprovalSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>API</t>
   </si>
@@ -138,11 +138,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>approvalSummary_purchase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[0].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"$sum(${ApprovalOld.money_statistics[0].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[0].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"$sum(${ApprovalOld.money_statistics[2].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[2].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"$sum(${ApprovalOld.money_statistics[3].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[3].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"$sum(${ApprovalOld.money_statistics[4].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[4].total_number},1)","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_reimbursement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_contract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[1].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_payment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[2].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[9].total_number},1)","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[4].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -588,15 +632,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -624,13 +668,57 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
+      <c r="A3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -643,15 +731,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -686,7 +774,51 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalSummary.xlsx
+++ b/sources/case/ApprovalSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>API</t>
   </si>
@@ -46,22 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asePath</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>application/json</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -142,22 +126,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"$sum(${ApprovalOld.money_statistics[0].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[0].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"$sum(${ApprovalOld.money_statistics[2].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[2].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"$sum(${ApprovalOld.money_statistics[3].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[3].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"$sum(${ApprovalOld.money_statistics[4].total_money},${purchase.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[4].total_number},1)","max_number":"##","show_color":"##"}]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>approvalSummary_reimbursement</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -187,6 +155,69 @@
   </si>
   <si>
     <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[4].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[3].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[5].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[6].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[7].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购","total_money":"${ApprovalOld.number_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销审批","total_money":"${ApprovalOld.number_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款","total_money":"${ApprovalOld.number_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"materialget","name":"物品领用","total_money":"${ApprovalOld.number_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同","total_money":"${ApprovalOld.number_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[4].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"trip_request","name":"出差","total_money":"${ApprovalOld.number_statistics[5].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[5].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"out_request","name":"外出","total_money":"${ApprovalOld.number_statistics[6].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[6].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"resign_request","name":"补卡","total_money":"${ApprovalOld.number_statistics[7].total_money}","total_number":"!!Int$sum(${ApprovalOld.number_statistics[7].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"general_approval","name":"通用审批","total_money":"${ApprovalOld.number_statistics[8].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[8].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目","total_money":"${ApprovalOld.number_statistics[9].total_money}","total_number":"!!Int${ApprovalOld.number_statistics[9].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_materialget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_trip_request</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_contract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_out_request</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_resign_request</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasePath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int$sum(${ApprovalOld.money_statistics[3].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int$sum(${ApprovalOld.money_statistics[4].total_number},1)","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"$sum(${ApprovalOld.money_statistics[0].total_money},${reimbursement.total_price})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[0].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"${ApprovalOld.money_statistics[2].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[2].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"$sum(${ApprovalOld.money_statistics[2].total_money},${payment.total_amount})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[2].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,6 +254,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,17 +291,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,17 +586,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -574,8 +610,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -585,43 +621,43 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -632,94 +668,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -731,94 +812,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ApprovalSummary.xlsx
+++ b/sources/case/ApprovalSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>API</t>
   </si>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t>[{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"reimbursement","name":"报销总金额","total_money":"${ApprovalOld.money_statistics[0].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[0].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"purchase","name":"采购花销","total_money":"${ApprovalOld.money_statistics[1].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[1].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"payment","name":"付款总金额","total_money":"$sum(${ApprovalOld.money_statistics[2].total_money},${payment.total_amount})","total_number":"!!Int$sum(${ApprovalOld.money_statistics[2].total_number},1)","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"project_approval","name":"项目审批数","total_money":"${ApprovalOld.money_statistics[3].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[3].total_number}","max_number":"##","show_color":"##"},{"Year":"{Date.Year}","month":"{Date.ThisMonth}","form_name":"contract","name":"合同审批数","total_money":"${ApprovalOld.money_statistics[4].total_money}","total_number":"!!Int${ApprovalOld.money_statistics[4].total_number}","max_number":"##","show_color":"##"}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/automation/v1/approval/statistic/summary?year={Year}&amp;month={Month}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +590,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -634,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -815,7 +819,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
